--- a/results/tables/performance/per_class_precision_transposed.xlsx
+++ b/results/tables/performance/per_class_precision_transposed.xlsx
@@ -485,10 +485,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>0.3831775700934579</v>
+        <v>0.383</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.429</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.385</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.5573770491803278</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.6539509536784741</v>
+        <v>0.654</v>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0.6310160427807486</v>
+        <v>0.631</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.6627565982404692</v>
+        <v>0.663</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.7661290322580645</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="4">
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>0.7466964972383416</v>
+        <v>0.747</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7443767080092495</v>
+        <v>0.744</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7383329936824944</v>
+        <v>0.738</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7392054076424335</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="5">
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B5" s="7" t="n">
-        <v>0.3488372093023256</v>
+        <v>0.349</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.306</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>0.5</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="6">
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0.8652890919928472</v>
+        <v>0.865</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8522215697788217</v>
+        <v>0.852</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8909284951974387</v>
+        <v>0.891</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8528594122319301</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="B7" s="7" t="n">
-        <v>0.7891156462585034</v>
+        <v>0.789</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>0.8791208791208791</v>
+        <v>0.879</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.7986111111111112</v>
+        <v>0.799</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.803</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/performance/per_class_precision_transposed.xlsx
+++ b/results/tables/performance/per_class_precision_transposed.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,10 +485,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -499,22 +500,27 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>RESNET101</t>
+          <t>CONVNEXT_TINY</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>RESNET152</t>
+          <t>DENSENET121</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>RESNET18</t>
+          <t>EFFICIENTNET_B3</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>RESNET34</t>
+          <t>RESNET50</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>SWIN_TINY</t>
         </is>
       </c>
     </row>
@@ -525,16 +531,19 @@
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>0.383</v>
+        <v>0.638</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>0.429</v>
+        <v>0.583</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.385</v>
+        <v>0.573</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.417</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0.671</v>
       </c>
     </row>
     <row r="3">
@@ -544,16 +553,19 @@
         </is>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.654</v>
+        <v>0.644</v>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0.631</v>
+        <v>0.761</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.663</v>
+        <v>0.889</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.766</v>
+        <v>0.77</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>0.681</v>
       </c>
     </row>
     <row r="4">
@@ -563,16 +575,19 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>0.747</v>
+        <v>0.757</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.744</v>
+        <v>0.755</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.738</v>
+        <v>0.742</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.739</v>
+        <v>0.752</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.762</v>
       </c>
     </row>
     <row r="5">
@@ -582,16 +597,19 @@
         </is>
       </c>
       <c r="B5" s="7" t="n">
-        <v>0.349</v>
+        <v>0.7</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.306</v>
+        <v>0.471</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.5</v>
+        <v>0.387</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.467</v>
+        <v>0.364</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>0.643</v>
       </c>
     </row>
     <row r="6">
@@ -601,16 +619,19 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0.865</v>
+        <v>0.907</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.852</v>
+        <v>0.894</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.891</v>
+        <v>0.914</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.853</v>
+        <v>0.899</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.904</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +641,19 @@
         </is>
       </c>
       <c r="B7" s="7" t="n">
-        <v>0.789</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>0.879</v>
+        <v>0.699</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.799</v>
+        <v>0.882</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.803</v>
+        <v>0.831</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>0.726</v>
       </c>
     </row>
   </sheetData>
